--- a/data/outputs/数学期刊(下)_altmetric/76Acta Mathematica Hungarica.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/76Acta Mathematica Hungarica.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE103"/>
+  <dimension ref="A1:CF103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1039,6 +1044,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1533,6 +1544,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1788,6 +1802,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2031,6 +2048,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2278,6 +2298,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2521,6 +2544,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2768,6 +2794,9 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,6 +3040,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3261,6 +3293,9 @@
       </c>
       <c r="CE11" t="n">
         <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3499,6 +3534,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3736,6 +3774,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3985,6 +4026,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4238,6 +4282,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4487,6 +4534,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4736,6 +4786,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4981,6 +5034,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5228,6 +5284,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5475,6 +5534,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5718,6 +5780,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5961,6 +6026,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6200,6 +6268,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6447,6 +6518,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6690,6 +6764,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6943,6 +7020,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7196,6 +7276,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7443,6 +7526,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7686,6 +7772,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7935,6 +8024,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8184,6 +8276,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8423,6 +8518,9 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8662,6 +8760,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8903,6 +9004,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9152,6 +9256,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9405,6 +9512,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9652,6 +9762,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9891,6 +10004,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10142,6 +10258,9 @@
         <v>0</v>
       </c>
       <c r="CE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10381,6 +10500,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10628,6 +10750,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10863,6 +10988,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11108,6 +11236,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11361,6 +11492,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11606,6 +11740,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11849,6 +11986,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12096,6 +12236,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12339,6 +12482,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12588,6 +12734,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12833,6 +12982,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13090,6 +13242,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13335,6 +13490,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13578,6 +13736,9 @@
         <v>0</v>
       </c>
       <c r="CE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13817,6 +13978,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14054,6 +14218,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14295,6 +14462,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14552,6 +14722,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14801,6 +14974,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15048,6 +15224,9 @@
         <v>0</v>
       </c>
       <c r="CE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15291,6 +15470,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15532,6 +15714,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15782,6 +15967,9 @@
       </c>
       <c r="CE62" t="n">
         <v>0</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
@@ -16020,6 +16208,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16257,6 +16448,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16506,6 +16700,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16753,6 +16950,9 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16996,6 +17196,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17257,6 +17460,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17502,6 +17708,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17751,6 +17960,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18004,6 +18216,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18261,6 +18476,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18506,6 +18724,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18755,6 +18976,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19002,6 +19226,9 @@
         <v>0</v>
       </c>
       <c r="CE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19241,6 +19468,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19482,6 +19712,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19735,6 +19968,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19984,6 +20220,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20229,6 +20468,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20472,6 +20714,9 @@
         <v>0</v>
       </c>
       <c r="CE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20711,6 +20956,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20952,6 +21200,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21199,6 +21450,9 @@
         <v>0</v>
       </c>
       <c r="CE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21442,6 +21696,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21679,6 +21936,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21928,6 +22188,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22175,6 +22438,9 @@
         <v>0</v>
       </c>
       <c r="CE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22418,6 +22684,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22659,6 +22928,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22908,6 +23180,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23163,6 +23438,9 @@
         <v>0</v>
       </c>
       <c r="CE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23406,6 +23684,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23659,6 +23940,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23908,6 +24192,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24151,6 +24438,9 @@
         <v>0</v>
       </c>
       <c r="CE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24394,6 +24684,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24647,6 +24940,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24896,6 +25192,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25139,6 +25438,9 @@
         <v>0</v>
       </c>
       <c r="CE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25382,6 +25684,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25623,6 +25928,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25874,6 +26182,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
